--- a/dados/tipologias2014.xlsx
+++ b/dados/tipologias2014.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobernardonarciso/Documents/Abstenção/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobernardonarciso/Documents/Abstenção/ffms-abstencao/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89535D99-AAF7-774E-AA7B-3392366C6436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65E685-6C9A-A64E-9CDE-C0CF2EAF348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="11400" xr2:uid="{57C2E478-EF82-3046-A5BB-4C17BEE34E8C}"/>
   </bookViews>
@@ -18463,8 +18463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B8EDF-9E01-E747-99CD-9CDBFAE51AD1}">
   <dimension ref="A1:C3098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3082" workbookViewId="0">
-      <selection activeCell="F3086" sqref="E3086:F3087"/>
+    <sheetView tabSelected="1" topLeftCell="A3084" workbookViewId="0">
+      <selection activeCell="E3101" sqref="E3101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
